--- a/Tianchi_power_prediction_analysis.xlsx
+++ b/Tianchi_power_prediction_analysis.xlsx
@@ -14,17 +14,14 @@
   <sheets>
     <sheet name="Tianchi_power_prediction_analys" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>record_date</t>
-  </si>
-  <si>
-    <t>lazzy</t>
   </si>
   <si>
     <t>ann60</t>
@@ -44,6 +41,14 @@
   </si>
   <si>
     <t>mean61</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lazzy47</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ann_lazzy</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -714,31 +719,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Prediction</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1062,7 +1042,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>lazzy</c:v>
+                  <c:v>lazzy47</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1470,6 +1450,151 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tianchi_power_prediction_analys!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ann_lazzy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tianchi_power_prediction_analys!$H$2:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>3564839.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3520628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3306973.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3092091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3367497.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3436200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3414503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3406552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3318728</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3130747</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3013768</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3343393</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3491004.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3520770.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3525308.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3523918.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3364481.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3288617.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3655044</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3851173.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3892689.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3941272</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3974931.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3833293.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3685795.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3980888</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4065510.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4039779.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4001548</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3979086.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1480,11 +1605,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1520162400"/>
-        <c:axId val="-1520156960"/>
+        <c:axId val="905219040"/>
+        <c:axId val="905214144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1520162400"/>
+        <c:axId val="905219040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1651,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1520156960"/>
+        <c:crossAx val="905214144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1534,7 +1659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1520156960"/>
+        <c:axId val="905214144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2000000"/>
@@ -1586,7 +1711,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1520162400"/>
+        <c:crossAx val="905219040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1599,7 +1724,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2215,19 +2340,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2508,38 +2633,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20160901</v>
       </c>
@@ -2561,8 +2689,12 @@
       <c r="G2">
         <v>3887547</v>
       </c>
+      <c r="H2">
+        <f>(B2+D2)/2</f>
+        <v>3564839.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20160902</v>
       </c>
@@ -2584,8 +2716,12 @@
       <c r="G3">
         <v>3833407</v>
       </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H31" si="0">(B3+D3)/2</f>
+        <v>3520628</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>20160903</v>
       </c>
@@ -2607,8 +2743,12 @@
       <c r="G4">
         <v>3664589</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>3306973.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>20160904</v>
       </c>
@@ -2630,8 +2770,12 @@
       <c r="G5">
         <v>3564235</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>3092091</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>20160905</v>
       </c>
@@ -2653,8 +2797,12 @@
       <c r="G6">
         <v>3855895</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>3367497.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>20160906</v>
       </c>
@@ -2676,8 +2824,12 @@
       <c r="G7">
         <v>3936661</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3436200</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>20160907</v>
       </c>
@@ -2699,8 +2851,12 @@
       <c r="G8">
         <v>3922462</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>3414503</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>20160908</v>
       </c>
@@ -2722,8 +2878,12 @@
       <c r="G9">
         <v>3836522</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>3406552</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>20160909</v>
       </c>
@@ -2745,8 +2905,12 @@
       <c r="G10">
         <v>3748671</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3318728</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20160910</v>
       </c>
@@ -2768,8 +2932,12 @@
       <c r="G11">
         <v>3731392</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>3130747</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>20160911</v>
       </c>
@@ -2791,8 +2959,12 @@
       <c r="G12">
         <v>3488949</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>3013768</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>20160912</v>
       </c>
@@ -2814,8 +2986,12 @@
       <c r="G13">
         <v>3751948</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>3343393</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>20160913</v>
       </c>
@@ -2837,8 +3013,12 @@
       <c r="G14">
         <v>3825755</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>3491004.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>20160914</v>
       </c>
@@ -2860,8 +3040,12 @@
       <c r="G15">
         <v>3833285</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>3520770.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>20160915</v>
       </c>
@@ -2883,8 +3067,12 @@
       <c r="G16">
         <v>3921914</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>3525308.5</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>20160916</v>
       </c>
@@ -2906,8 +3094,12 @@
       <c r="G17">
         <v>3844843</v>
       </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>3523918.5</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>20160917</v>
       </c>
@@ -2929,8 +3121,12 @@
       <c r="G18">
         <v>3729888</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>3364481.5</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>20160918</v>
       </c>
@@ -2952,8 +3148,12 @@
       <c r="G19">
         <v>3473847</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>3288617.5</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>20160919</v>
       </c>
@@ -2975,8 +3175,12 @@
       <c r="G20">
         <v>3797238</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>3655044</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20160920</v>
       </c>
@@ -2998,8 +3202,12 @@
       <c r="G21">
         <v>3832667</v>
       </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>3851173.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20160921</v>
       </c>
@@ -3021,8 +3229,12 @@
       <c r="G22">
         <v>3847114</v>
       </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>3892689.5</v>
+      </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20160922</v>
       </c>
@@ -3044,8 +3256,12 @@
       <c r="G23">
         <v>3794805</v>
       </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>3941272</v>
+      </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20160923</v>
       </c>
@@ -3067,8 +3283,12 @@
       <c r="G24">
         <v>3790033</v>
       </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>3974931.5</v>
+      </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>20160924</v>
       </c>
@@ -3090,8 +3310,12 @@
       <c r="G25">
         <v>3693608</v>
       </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>3833293.5</v>
+      </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>20160925</v>
       </c>
@@ -3113,8 +3337,12 @@
       <c r="G26">
         <v>3569753</v>
       </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>3685795.5</v>
+      </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>20160926</v>
       </c>
@@ -3136,8 +3364,12 @@
       <c r="G27">
         <v>3820459</v>
       </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>3980888</v>
+      </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>20160927</v>
       </c>
@@ -3159,8 +3391,12 @@
       <c r="G28">
         <v>3873835</v>
       </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>4065510.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>20160928</v>
       </c>
@@ -3182,8 +3418,12 @@
       <c r="G29">
         <v>3921982</v>
       </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>4039779.5</v>
+      </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>20160929</v>
       </c>
@@ -3205,8 +3445,12 @@
       <c r="G30">
         <v>3997932</v>
       </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>4001548</v>
+      </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>20160930</v>
       </c>
@@ -3227,11 +3471,16 @@
       </c>
       <c r="G31">
         <v>3937115</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>3979086.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tianchi_power_prediction_analysis.xlsx
+++ b/Tianchi_power_prediction_analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>record_date</t>
   </si>
@@ -48,7 +48,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ann_lazzy</t>
+    <t>ann_new</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ann_lazzy58</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1459,7 +1463,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ann_lazzy</c:v>
+                  <c:v>ann_lazzy58</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1595,6 +1599,151 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tianchi_power_prediction_analys!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ann_new</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tianchi_power_prediction_analys!$I$2:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>4064168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4040413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3939734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3716107</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3989762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4025562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4046377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4093827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4056414</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3951589</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3724978</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3997309</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4041466</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4054384</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4098502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4063416</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3956416</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3738435</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4009049</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4049912</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4076117</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4135572</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4132805</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4046321</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3835044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4118181</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4159873</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4191447</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4249969</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4205662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1605,11 +1754,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="905219040"/>
-        <c:axId val="905214144"/>
+        <c:axId val="11549680"/>
+        <c:axId val="11550224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="905219040"/>
+        <c:axId val="11549680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,7 +1800,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="905214144"/>
+        <c:crossAx val="11550224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1659,7 +1808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="905214144"/>
+        <c:axId val="11550224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2000000"/>
@@ -1711,7 +1860,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="905219040"/>
+        <c:crossAx val="11549680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2340,19 +2489,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2633,15 +2782,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2664,10 +2816,13 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20160901</v>
       </c>
@@ -2693,8 +2848,11 @@
         <f>(B2+D2)/2</f>
         <v>3564839.5</v>
       </c>
+      <c r="I2">
+        <v>4064168</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20160902</v>
       </c>
@@ -2720,8 +2878,11 @@
         <f t="shared" ref="H3:H31" si="0">(B3+D3)/2</f>
         <v>3520628</v>
       </c>
+      <c r="I3">
+        <v>4040413</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>20160903</v>
       </c>
@@ -2747,8 +2908,11 @@
         <f t="shared" si="0"/>
         <v>3306973.5</v>
       </c>
+      <c r="I4">
+        <v>3939734</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>20160904</v>
       </c>
@@ -2774,8 +2938,11 @@
         <f t="shared" si="0"/>
         <v>3092091</v>
       </c>
+      <c r="I5">
+        <v>3716107</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>20160905</v>
       </c>
@@ -2801,8 +2968,11 @@
         <f t="shared" si="0"/>
         <v>3367497.5</v>
       </c>
+      <c r="I6">
+        <v>3989762</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>20160906</v>
       </c>
@@ -2828,8 +2998,11 @@
         <f t="shared" si="0"/>
         <v>3436200</v>
       </c>
+      <c r="I7">
+        <v>4025562</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>20160907</v>
       </c>
@@ -2855,8 +3028,11 @@
         <f t="shared" si="0"/>
         <v>3414503</v>
       </c>
+      <c r="I8">
+        <v>4046377</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>20160908</v>
       </c>
@@ -2882,8 +3058,11 @@
         <f t="shared" si="0"/>
         <v>3406552</v>
       </c>
+      <c r="I9">
+        <v>4093827</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>20160909</v>
       </c>
@@ -2909,8 +3088,11 @@
         <f t="shared" si="0"/>
         <v>3318728</v>
       </c>
+      <c r="I10">
+        <v>4056414</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20160910</v>
       </c>
@@ -2936,8 +3118,11 @@
         <f t="shared" si="0"/>
         <v>3130747</v>
       </c>
+      <c r="I11">
+        <v>3951589</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>20160911</v>
       </c>
@@ -2963,8 +3148,11 @@
         <f t="shared" si="0"/>
         <v>3013768</v>
       </c>
+      <c r="I12">
+        <v>3724978</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>20160912</v>
       </c>
@@ -2990,8 +3178,11 @@
         <f t="shared" si="0"/>
         <v>3343393</v>
       </c>
+      <c r="I13">
+        <v>3997309</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>20160913</v>
       </c>
@@ -3017,8 +3208,11 @@
         <f t="shared" si="0"/>
         <v>3491004.5</v>
       </c>
+      <c r="I14">
+        <v>4041466</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>20160914</v>
       </c>
@@ -3044,8 +3238,11 @@
         <f t="shared" si="0"/>
         <v>3520770.5</v>
       </c>
+      <c r="I15">
+        <v>4054384</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>20160915</v>
       </c>
@@ -3071,8 +3268,11 @@
         <f t="shared" si="0"/>
         <v>3525308.5</v>
       </c>
+      <c r="I16">
+        <v>4098502</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>20160916</v>
       </c>
@@ -3098,8 +3298,11 @@
         <f t="shared" si="0"/>
         <v>3523918.5</v>
       </c>
+      <c r="I17">
+        <v>4063416</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>20160917</v>
       </c>
@@ -3125,8 +3328,11 @@
         <f t="shared" si="0"/>
         <v>3364481.5</v>
       </c>
+      <c r="I18">
+        <v>3956416</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>20160918</v>
       </c>
@@ -3152,8 +3358,11 @@
         <f t="shared" si="0"/>
         <v>3288617.5</v>
       </c>
+      <c r="I19">
+        <v>3738435</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>20160919</v>
       </c>
@@ -3179,8 +3388,11 @@
         <f t="shared" si="0"/>
         <v>3655044</v>
       </c>
+      <c r="I20">
+        <v>4009049</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20160920</v>
       </c>
@@ -3206,8 +3418,11 @@
         <f t="shared" si="0"/>
         <v>3851173.5</v>
       </c>
+      <c r="I21">
+        <v>4049912</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20160921</v>
       </c>
@@ -3233,8 +3448,11 @@
         <f t="shared" si="0"/>
         <v>3892689.5</v>
       </c>
+      <c r="I22">
+        <v>4076117</v>
+      </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20160922</v>
       </c>
@@ -3260,8 +3478,11 @@
         <f t="shared" si="0"/>
         <v>3941272</v>
       </c>
+      <c r="I23">
+        <v>4135572</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20160923</v>
       </c>
@@ -3287,8 +3508,11 @@
         <f t="shared" si="0"/>
         <v>3974931.5</v>
       </c>
+      <c r="I24">
+        <v>4132805</v>
+      </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>20160924</v>
       </c>
@@ -3314,8 +3538,11 @@
         <f t="shared" si="0"/>
         <v>3833293.5</v>
       </c>
+      <c r="I25">
+        <v>4046321</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>20160925</v>
       </c>
@@ -3341,8 +3568,11 @@
         <f t="shared" si="0"/>
         <v>3685795.5</v>
       </c>
+      <c r="I26">
+        <v>3835044</v>
+      </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>20160926</v>
       </c>
@@ -3368,8 +3598,11 @@
         <f t="shared" si="0"/>
         <v>3980888</v>
       </c>
+      <c r="I27">
+        <v>4118181</v>
+      </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>20160927</v>
       </c>
@@ -3395,8 +3628,11 @@
         <f t="shared" si="0"/>
         <v>4065510.5</v>
       </c>
+      <c r="I28">
+        <v>4159873</v>
+      </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>20160928</v>
       </c>
@@ -3422,8 +3658,11 @@
         <f t="shared" si="0"/>
         <v>4039779.5</v>
       </c>
+      <c r="I29">
+        <v>4191447</v>
+      </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>20160929</v>
       </c>
@@ -3449,8 +3688,11 @@
         <f t="shared" si="0"/>
         <v>4001548</v>
       </c>
+      <c r="I30">
+        <v>4249969</v>
+      </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>20160930</v>
       </c>
@@ -3475,6 +3717,9 @@
       <c r="H31">
         <f t="shared" si="0"/>
         <v>3979086.5</v>
+      </c>
+      <c r="I31">
+        <v>4205662</v>
       </c>
     </row>
   </sheetData>

--- a/Tianchi_power_prediction_analysis.xlsx
+++ b/Tianchi_power_prediction_analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>record_date</t>
   </si>
@@ -57,6 +57,14 @@
   </si>
   <si>
     <t>real</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>try1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>try2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -712,6 +720,1115 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tianchi_power_prediction_analys!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>try1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tianchi_power_prediction_analys!$K$2:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3912173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3862791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3745903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3587804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3868287</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3922242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3931321</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3939607</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3886951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3774348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3591559</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3883925</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3936262</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3942833</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3952134</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3894117</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3784473</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3609757</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3883569</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3958694</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3964511</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3969147</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3924637</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3799462</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3641180</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3923409</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3977495</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3987026</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3983534</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3939722</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3828125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tianchi_power_prediction_analys!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>try2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tianchi_power_prediction_analys!$L$2:$L$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3574316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3856998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3902048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3926470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3925995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3875957</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3768736</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3601749</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3881159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3930494</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3930225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3941633</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3889978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3780248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3614277</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3888324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3940618</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3948423</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3941277</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3912410</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3801926</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3631289</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3918844</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3955607</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3979846</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3981117</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3931211</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3824441</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3645676</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3933930</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3984270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="685626240"/>
+        <c:axId val="685624064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="685626240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685624064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685624064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685626240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -975,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -986,7 +2103,7 @@
     <col min="8" max="8" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,8 +2134,14 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20160901</v>
       </c>
@@ -1050,8 +2173,14 @@
       <c r="J2">
         <v>3683282</v>
       </c>
+      <c r="K2">
+        <v>3912173</v>
+      </c>
+      <c r="L2">
+        <v>3574316</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20160902</v>
       </c>
@@ -1083,8 +2212,14 @@
       <c r="J3">
         <v>3723110</v>
       </c>
+      <c r="K3">
+        <v>3862791</v>
+      </c>
+      <c r="L3">
+        <v>3856998</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>20160903</v>
       </c>
@@ -1116,8 +2251,14 @@
       <c r="J4">
         <v>3490429</v>
       </c>
+      <c r="K4">
+        <v>3745903</v>
+      </c>
+      <c r="L4">
+        <v>3902048</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>20160904</v>
       </c>
@@ -1149,8 +2290,14 @@
       <c r="J5">
         <v>3258102</v>
       </c>
+      <c r="K5">
+        <v>3587804</v>
+      </c>
+      <c r="L5">
+        <v>3926470</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>20160905</v>
       </c>
@@ -1182,8 +2329,14 @@
       <c r="J6">
         <v>3681162</v>
       </c>
+      <c r="K6">
+        <v>3868287</v>
+      </c>
+      <c r="L6">
+        <v>3925995</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>20160906</v>
       </c>
@@ -1215,8 +2368,14 @@
       <c r="J7">
         <v>3582158</v>
       </c>
+      <c r="K7">
+        <v>3922242</v>
+      </c>
+      <c r="L7">
+        <v>3875957</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>20160907</v>
       </c>
@@ -1248,8 +2407,14 @@
       <c r="J8">
         <v>3480405</v>
       </c>
+      <c r="K8">
+        <v>3931321</v>
+      </c>
+      <c r="L8">
+        <v>3768736</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>20160908</v>
       </c>
@@ -1281,8 +2446,14 @@
       <c r="J9">
         <v>3584115</v>
       </c>
+      <c r="K9">
+        <v>3939607</v>
+      </c>
+      <c r="L9">
+        <v>3601749</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>20160909</v>
       </c>
@@ -1314,8 +2485,14 @@
       <c r="J10">
         <v>3729301</v>
       </c>
+      <c r="K10">
+        <v>3886951</v>
+      </c>
+      <c r="L10">
+        <v>3881159</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20160910</v>
       </c>
@@ -1347,8 +2524,14 @@
       <c r="J11">
         <v>3695458</v>
       </c>
+      <c r="K11">
+        <v>3774348</v>
+      </c>
+      <c r="L11">
+        <v>3930494</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>20160911</v>
       </c>
@@ -1380,8 +2563,14 @@
       <c r="J12">
         <v>3424545</v>
       </c>
+      <c r="K12">
+        <v>3591559</v>
+      </c>
+      <c r="L12">
+        <v>3930225</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>20160912</v>
       </c>
@@ -1413,8 +2602,14 @@
       <c r="J13">
         <v>3715688</v>
       </c>
+      <c r="K13">
+        <v>3883925</v>
+      </c>
+      <c r="L13">
+        <v>3941633</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>20160913</v>
       </c>
@@ -1446,8 +2641,14 @@
       <c r="J14">
         <v>3814278</v>
       </c>
+      <c r="K14">
+        <v>3936262</v>
+      </c>
+      <c r="L14">
+        <v>3889978</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>20160914</v>
       </c>
@@ -1479,8 +2680,14 @@
       <c r="J15">
         <v>3758030</v>
       </c>
+      <c r="K15">
+        <v>3942833</v>
+      </c>
+      <c r="L15">
+        <v>3780248</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>20160915</v>
       </c>
@@ -1512,8 +2719,14 @@
       <c r="J16">
         <v>2982572</v>
       </c>
+      <c r="K16">
+        <v>3952134</v>
+      </c>
+      <c r="L16">
+        <v>3614277</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>20160916</v>
       </c>
@@ -1545,8 +2758,14 @@
       <c r="J17">
         <v>3210144</v>
       </c>
+      <c r="K17">
+        <v>3894117</v>
+      </c>
+      <c r="L17">
+        <v>3888324</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>20160917</v>
       </c>
@@ -1578,8 +2797,14 @@
       <c r="J18">
         <v>3555462</v>
       </c>
+      <c r="K18">
+        <v>3784473</v>
+      </c>
+      <c r="L18">
+        <v>3940618</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>20160918</v>
       </c>
@@ -1611,8 +2836,14 @@
       <c r="J19">
         <v>3832516</v>
       </c>
+      <c r="K19">
+        <v>3609757</v>
+      </c>
+      <c r="L19">
+        <v>3948423</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>20160919</v>
       </c>
@@ -1644,8 +2875,14 @@
       <c r="J20">
         <v>3894787</v>
       </c>
+      <c r="K20">
+        <v>3883569</v>
+      </c>
+      <c r="L20">
+        <v>3941277</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20160920</v>
       </c>
@@ -1677,8 +2914,14 @@
       <c r="J21">
         <v>3929544</v>
       </c>
+      <c r="K21">
+        <v>3958694</v>
+      </c>
+      <c r="L21">
+        <v>3912410</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20160921</v>
       </c>
@@ -1710,8 +2953,14 @@
       <c r="J22">
         <v>4043865</v>
       </c>
+      <c r="K22">
+        <v>3964511</v>
+      </c>
+      <c r="L22">
+        <v>3801926</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20160922</v>
       </c>
@@ -1743,8 +2992,14 @@
       <c r="J23">
         <v>4021526</v>
       </c>
+      <c r="K23">
+        <v>3969147</v>
+      </c>
+      <c r="L23">
+        <v>3631289</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20160923</v>
       </c>
@@ -1776,8 +3031,14 @@
       <c r="J24">
         <v>4045334</v>
       </c>
+      <c r="K24">
+        <v>3924637</v>
+      </c>
+      <c r="L24">
+        <v>3918844</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>20160924</v>
       </c>
@@ -1809,8 +3070,14 @@
       <c r="J25">
         <v>3943147</v>
       </c>
+      <c r="K25">
+        <v>3799462</v>
+      </c>
+      <c r="L25">
+        <v>3955607</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>20160925</v>
       </c>
@@ -1842,8 +3109,14 @@
       <c r="J26">
         <v>3811406</v>
       </c>
+      <c r="K26">
+        <v>3641180</v>
+      </c>
+      <c r="L26">
+        <v>3979846</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>20160926</v>
       </c>
@@ -1875,8 +3148,14 @@
       <c r="J27">
         <v>4042132</v>
       </c>
+      <c r="K27">
+        <v>3923409</v>
+      </c>
+      <c r="L27">
+        <v>3981117</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>20160927</v>
       </c>
@@ -1908,8 +3187,14 @@
       <c r="J28">
         <v>4287965</v>
       </c>
+      <c r="K28">
+        <v>3977495</v>
+      </c>
+      <c r="L28">
+        <v>3931211</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>20160928</v>
       </c>
@@ -1941,8 +3226,14 @@
       <c r="J29">
         <v>4086998</v>
       </c>
+      <c r="K29">
+        <v>3987026</v>
+      </c>
+      <c r="L29">
+        <v>3824441</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>20160929</v>
       </c>
@@ -1974,8 +3265,14 @@
       <c r="J30">
         <v>3941842</v>
       </c>
+      <c r="K30">
+        <v>3983534</v>
+      </c>
+      <c r="L30">
+        <v>3645676</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>20160930</v>
       </c>
@@ -2006,11 +3303,26 @@
       </c>
       <c r="J31">
         <v>3783264</v>
+      </c>
+      <c r="K31">
+        <v>3939722</v>
+      </c>
+      <c r="L31">
+        <v>3933930</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="K32">
+        <v>3828125</v>
+      </c>
+      <c r="L32">
+        <v>3984270</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tianchi_power_prediction_analysis.xlsx
+++ b/Tianchi_power_prediction_analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>record_date</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>try2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>try3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>prediction</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>final</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -776,11 +788,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tianchi_power_prediction_analys!$K$1</c:f>
+              <c:f>Tianchi_power_prediction_analys!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>try1</c:v>
+                  <c:v>try2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -811,102 +823,102 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tianchi_power_prediction_analys!$K$2:$K$32</c:f>
+              <c:f>Tianchi_power_prediction_analys!$L$2:$L$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3912173</c:v>
+                  <c:v>3964666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3862791</c:v>
+                  <c:v>3831931</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3745903</c:v>
+                  <c:v>3652075</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3587804</c:v>
+                  <c:v>3927876</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3868287</c:v>
+                  <c:v>3978963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3922242</c:v>
+                  <c:v>3994799</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3931321</c:v>
+                  <c:v>3975099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3939607</c:v>
+                  <c:v>3933963</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3886951</c:v>
+                  <c:v>3800749</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3774348</c:v>
+                  <c:v>3626528</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3591559</c:v>
+                  <c:v>3906690</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3883925</c:v>
+                  <c:v>3946404</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3936262</c:v>
+                  <c:v>3968698</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3942833</c:v>
+                  <c:v>3961375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3952134</c:v>
+                  <c:v>3901411</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3894117</c:v>
+                  <c:v>3775226</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3784473</c:v>
+                  <c:v>3597713</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3609757</c:v>
+                  <c:v>3881204</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3883569</c:v>
+                  <c:v>3940761</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3958694</c:v>
+                  <c:v>3937079</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3964511</c:v>
+                  <c:v>3938686</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3969147</c:v>
+                  <c:v>3898984</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3924637</c:v>
+                  <c:v>3799285</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3799462</c:v>
+                  <c:v>3607025</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3641180</c:v>
+                  <c:v>3914140</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3923409</c:v>
+                  <c:v>3966466</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3977495</c:v>
+                  <c:v>3968912</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3987026</c:v>
+                  <c:v>3976964</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3983534</c:v>
+                  <c:v>3920057</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3939722</c:v>
+                  <c:v>3821530</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3828125</c:v>
+                  <c:v>3629942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,11 +930,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tianchi_power_prediction_analys!$L$1</c:f>
+              <c:f>Tianchi_power_prediction_analys!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>try2</c:v>
+                  <c:v>try3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -953,102 +965,386 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tianchi_power_prediction_analys!$L$2:$L$32</c:f>
+              <c:f>Tianchi_power_prediction_analys!$M$2:$M$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3574316</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3856998</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3902048</c:v>
+                  <c:v>3000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3926470</c:v>
+                  <c:v>3587804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3925995</c:v>
+                  <c:v>3868287</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3875957</c:v>
+                  <c:v>3922242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3768736</c:v>
+                  <c:v>3975099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3601749</c:v>
+                  <c:v>3933963</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3881159</c:v>
+                  <c:v>3800749</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3930494</c:v>
+                  <c:v>3626528</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3930225</c:v>
+                  <c:v>3906690</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3941633</c:v>
+                  <c:v>3946404</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3889978</c:v>
+                  <c:v>3968698</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3780248</c:v>
+                  <c:v>3961375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3614277</c:v>
+                  <c:v>3901411</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3888324</c:v>
+                  <c:v>3775226</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3940618</c:v>
+                  <c:v>3597713</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3948423</c:v>
+                  <c:v>3881204</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3941277</c:v>
+                  <c:v>3940761</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3912410</c:v>
+                  <c:v>3937079</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3801926</c:v>
+                  <c:v>3938686</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3631289</c:v>
+                  <c:v>3898984</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3918844</c:v>
+                  <c:v>3799285</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3955607</c:v>
+                  <c:v>3607025</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3979846</c:v>
+                  <c:v>3914140</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3981117</c:v>
+                  <c:v>3966466</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3931211</c:v>
+                  <c:v>3968912</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3824441</c:v>
+                  <c:v>3976964</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3645676</c:v>
+                  <c:v>3920057</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3933930</c:v>
+                  <c:v>3821530</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3984270</c:v>
+                  <c:v>3629942</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tianchi_power_prediction_analys!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>prediction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tianchi_power_prediction_analys!$N$2:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3851256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3650956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3938318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3977974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3992582</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3991820</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3922503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3820553</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3619774</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3912771</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3956789</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3960023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3965719</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3908779</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3788001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3594251</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3883956</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3931302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3954380</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3934099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3886090</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3785574</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3618310</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3893268</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3964239</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3980085</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3965933</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3924369</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3806647</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3640555</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3916185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tianchi_power_prediction_analys!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>final</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tianchi_power_prediction_analys!$O$2:$O$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3487804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3768287</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3868287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3922503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3975099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3922503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3912771</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3956789</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3960023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3965719</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3908779</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3788001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3594251</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3883956</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3931302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3954380</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3934099</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3886090</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3785574</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3618310</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3893268</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3964239</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3980085</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3965933</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3924369</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3806647</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3640555</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3916185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,6 +1352,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1065,31 +1362,109 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="685626240"/>
-        <c:axId val="685624064"/>
+        <c:axId val="895094320"/>
+        <c:axId val="895087248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="685626240"/>
+        <c:axId val="895094320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:glow rad="228600">
+              <a:schemeClr val="accent6">
+                <a:satMod val="175000"/>
+                <a:alpha val="40000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1097,6 +1472,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1111,7 +1491,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685624064"/>
+        <c:crossAx val="895087248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1119,32 +1499,121 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="685624064"/>
+        <c:axId val="895087248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="2800000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="5000"/>
+                      <a:lumOff val="95000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="74000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="83000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="45000"/>
+                      <a:lumOff val="55000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="30000"/>
+                      <a:lumOff val="70000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="1"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:noFill/>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="74000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
@@ -1157,11 +1626,16 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:glow rad="101600">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="175000"/>
+                      <a:alpha val="40000"/>
+                    </a:schemeClr>
+                  </a:glow>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1170,14 +1644,42 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685626240"/>
+        <c:crossAx val="895094320"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="74000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="83000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="45000"/>
+                  <a:lumOff val="55000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="30000"/>
+                  <a:lumOff val="70000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="1"/>
+          </a:gradFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1219,16 +1721,65 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="9000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="32000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="73000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="5000"/>
+              <a:lumOff val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="74000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="45000"/>
+              <a:lumOff val="55000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="83000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="45000"/>
+              <a:lumOff val="55000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="30000"/>
+              <a:lumOff val="70000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1798,20 +2349,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="657225"/>
+          <a:ext cx="1" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1826,6 +2421,110 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505325" y="400050"/>
+          <a:ext cx="0" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="846770" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2952750" y="781050"/>
+          <a:ext cx="846770" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>天调整</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2092,18 +2791,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="13" max="13" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2140,8 +2840,17 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>20160901</v>
       </c>
@@ -2177,10 +2886,19 @@
         <v>3912173</v>
       </c>
       <c r="L2">
-        <v>3574316</v>
+        <v>3964666</v>
+      </c>
+      <c r="M2">
+        <v>3000000</v>
+      </c>
+      <c r="N2">
+        <v>3851256</v>
+      </c>
+      <c r="O2">
+        <v>3000000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>20160902</v>
       </c>
@@ -2216,10 +2934,19 @@
         <v>3862791</v>
       </c>
       <c r="L3">
-        <v>3856998</v>
+        <v>3831931</v>
+      </c>
+      <c r="M3">
+        <v>3000000</v>
+      </c>
+      <c r="N3">
+        <v>3650956</v>
+      </c>
+      <c r="O3">
+        <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>20160903</v>
       </c>
@@ -2255,10 +2982,19 @@
         <v>3745903</v>
       </c>
       <c r="L4">
-        <v>3902048</v>
+        <v>3652075</v>
+      </c>
+      <c r="M4">
+        <v>3000000</v>
+      </c>
+      <c r="N4">
+        <v>3938318</v>
+      </c>
+      <c r="O4">
+        <v>3000000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>20160904</v>
       </c>
@@ -2294,10 +3030,19 @@
         <v>3587804</v>
       </c>
       <c r="L5">
-        <v>3926470</v>
+        <v>3927876</v>
+      </c>
+      <c r="M5">
+        <v>3587804</v>
+      </c>
+      <c r="N5">
+        <v>3977974</v>
+      </c>
+      <c r="O5">
+        <v>3487804</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>20160905</v>
       </c>
@@ -2333,10 +3078,19 @@
         <v>3868287</v>
       </c>
       <c r="L6">
-        <v>3925995</v>
+        <v>3978963</v>
+      </c>
+      <c r="M6">
+        <v>3868287</v>
+      </c>
+      <c r="N6">
+        <v>3992582</v>
+      </c>
+      <c r="O6">
+        <v>3768287</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>20160906</v>
       </c>
@@ -2372,10 +3126,19 @@
         <v>3922242</v>
       </c>
       <c r="L7">
-        <v>3875957</v>
+        <v>3994799</v>
+      </c>
+      <c r="M7">
+        <v>3922242</v>
+      </c>
+      <c r="N7">
+        <v>3991820</v>
+      </c>
+      <c r="O7">
+        <v>3868287</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>20160907</v>
       </c>
@@ -2411,10 +3174,19 @@
         <v>3931321</v>
       </c>
       <c r="L8">
-        <v>3768736</v>
+        <v>3975099</v>
+      </c>
+      <c r="M8">
+        <v>3975099</v>
+      </c>
+      <c r="N8">
+        <v>3922503</v>
+      </c>
+      <c r="O8">
+        <v>3922503</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>20160908</v>
       </c>
@@ -2450,10 +3222,19 @@
         <v>3939607</v>
       </c>
       <c r="L9">
-        <v>3601749</v>
+        <v>3933963</v>
+      </c>
+      <c r="M9">
+        <v>3933963</v>
+      </c>
+      <c r="N9">
+        <v>3820553</v>
+      </c>
+      <c r="O9">
+        <v>3975099</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>20160909</v>
       </c>
@@ -2489,10 +3270,19 @@
         <v>3886951</v>
       </c>
       <c r="L10">
-        <v>3881159</v>
+        <v>3800749</v>
+      </c>
+      <c r="M10">
+        <v>3800749</v>
+      </c>
+      <c r="N10">
+        <v>3619774</v>
+      </c>
+      <c r="O10">
+        <v>3922503</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20160910</v>
       </c>
@@ -2528,10 +3318,19 @@
         <v>3774348</v>
       </c>
       <c r="L11">
-        <v>3930494</v>
+        <v>3626528</v>
+      </c>
+      <c r="M11">
+        <v>3626528</v>
+      </c>
+      <c r="N11">
+        <v>3912771</v>
+      </c>
+      <c r="O11">
+        <v>3912771</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>20160911</v>
       </c>
@@ -2567,10 +3366,19 @@
         <v>3591559</v>
       </c>
       <c r="L12">
-        <v>3930225</v>
+        <v>3906690</v>
+      </c>
+      <c r="M12">
+        <v>3906690</v>
+      </c>
+      <c r="N12">
+        <v>3956789</v>
+      </c>
+      <c r="O12">
+        <v>3956789</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>20160912</v>
       </c>
@@ -2606,10 +3414,19 @@
         <v>3883925</v>
       </c>
       <c r="L13">
-        <v>3941633</v>
+        <v>3946404</v>
+      </c>
+      <c r="M13">
+        <v>3946404</v>
+      </c>
+      <c r="N13">
+        <v>3960023</v>
+      </c>
+      <c r="O13">
+        <v>3960023</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>20160913</v>
       </c>
@@ -2645,10 +3462,19 @@
         <v>3936262</v>
       </c>
       <c r="L14">
-        <v>3889978</v>
+        <v>3968698</v>
+      </c>
+      <c r="M14">
+        <v>3968698</v>
+      </c>
+      <c r="N14">
+        <v>3965719</v>
+      </c>
+      <c r="O14">
+        <v>3965719</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>20160914</v>
       </c>
@@ -2684,10 +3510,19 @@
         <v>3942833</v>
       </c>
       <c r="L15">
-        <v>3780248</v>
+        <v>3961375</v>
+      </c>
+      <c r="M15">
+        <v>3961375</v>
+      </c>
+      <c r="N15">
+        <v>3908779</v>
+      </c>
+      <c r="O15">
+        <v>3908779</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>20160915</v>
       </c>
@@ -2723,10 +3558,19 @@
         <v>3952134</v>
       </c>
       <c r="L16">
-        <v>3614277</v>
+        <v>3901411</v>
+      </c>
+      <c r="M16">
+        <v>3901411</v>
+      </c>
+      <c r="N16">
+        <v>3788001</v>
+      </c>
+      <c r="O16">
+        <v>3788001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>20160916</v>
       </c>
@@ -2762,10 +3606,19 @@
         <v>3894117</v>
       </c>
       <c r="L17">
-        <v>3888324</v>
+        <v>3775226</v>
+      </c>
+      <c r="M17">
+        <v>3775226</v>
+      </c>
+      <c r="N17">
+        <v>3594251</v>
+      </c>
+      <c r="O17">
+        <v>3594251</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>20160917</v>
       </c>
@@ -2801,10 +3654,19 @@
         <v>3784473</v>
       </c>
       <c r="L18">
-        <v>3940618</v>
+        <v>3597713</v>
+      </c>
+      <c r="M18">
+        <v>3597713</v>
+      </c>
+      <c r="N18">
+        <v>3883956</v>
+      </c>
+      <c r="O18">
+        <v>3883956</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>20160918</v>
       </c>
@@ -2840,10 +3702,19 @@
         <v>3609757</v>
       </c>
       <c r="L19">
-        <v>3948423</v>
+        <v>3881204</v>
+      </c>
+      <c r="M19">
+        <v>3881204</v>
+      </c>
+      <c r="N19">
+        <v>3931302</v>
+      </c>
+      <c r="O19">
+        <v>3931302</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>20160919</v>
       </c>
@@ -2879,10 +3750,19 @@
         <v>3883569</v>
       </c>
       <c r="L20">
-        <v>3941277</v>
+        <v>3940761</v>
+      </c>
+      <c r="M20">
+        <v>3940761</v>
+      </c>
+      <c r="N20">
+        <v>3954380</v>
+      </c>
+      <c r="O20">
+        <v>3954380</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20160920</v>
       </c>
@@ -2918,10 +3798,19 @@
         <v>3958694</v>
       </c>
       <c r="L21">
-        <v>3912410</v>
+        <v>3937079</v>
+      </c>
+      <c r="M21">
+        <v>3937079</v>
+      </c>
+      <c r="N21">
+        <v>3934099</v>
+      </c>
+      <c r="O21">
+        <v>3934099</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20160921</v>
       </c>
@@ -2957,10 +3846,19 @@
         <v>3964511</v>
       </c>
       <c r="L22">
-        <v>3801926</v>
+        <v>3938686</v>
+      </c>
+      <c r="M22">
+        <v>3938686</v>
+      </c>
+      <c r="N22">
+        <v>3886090</v>
+      </c>
+      <c r="O22">
+        <v>3886090</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20160922</v>
       </c>
@@ -2996,10 +3894,19 @@
         <v>3969147</v>
       </c>
       <c r="L23">
-        <v>3631289</v>
+        <v>3898984</v>
+      </c>
+      <c r="M23">
+        <v>3898984</v>
+      </c>
+      <c r="N23">
+        <v>3785574</v>
+      </c>
+      <c r="O23">
+        <v>3785574</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20160923</v>
       </c>
@@ -3035,10 +3942,19 @@
         <v>3924637</v>
       </c>
       <c r="L24">
-        <v>3918844</v>
+        <v>3799285</v>
+      </c>
+      <c r="M24">
+        <v>3799285</v>
+      </c>
+      <c r="N24">
+        <v>3618310</v>
+      </c>
+      <c r="O24">
+        <v>3618310</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>20160924</v>
       </c>
@@ -3074,10 +3990,19 @@
         <v>3799462</v>
       </c>
       <c r="L25">
-        <v>3955607</v>
+        <v>3607025</v>
+      </c>
+      <c r="M25">
+        <v>3607025</v>
+      </c>
+      <c r="N25">
+        <v>3893268</v>
+      </c>
+      <c r="O25">
+        <v>3893268</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>20160925</v>
       </c>
@@ -3113,10 +4038,19 @@
         <v>3641180</v>
       </c>
       <c r="L26">
-        <v>3979846</v>
+        <v>3914140</v>
+      </c>
+      <c r="M26">
+        <v>3914140</v>
+      </c>
+      <c r="N26">
+        <v>3964239</v>
+      </c>
+      <c r="O26">
+        <v>3964239</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>20160926</v>
       </c>
@@ -3152,10 +4086,19 @@
         <v>3923409</v>
       </c>
       <c r="L27">
-        <v>3981117</v>
+        <v>3966466</v>
+      </c>
+      <c r="M27">
+        <v>3966466</v>
+      </c>
+      <c r="N27">
+        <v>3980085</v>
+      </c>
+      <c r="O27">
+        <v>3980085</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>20160927</v>
       </c>
@@ -3191,10 +4134,19 @@
         <v>3977495</v>
       </c>
       <c r="L28">
-        <v>3931211</v>
+        <v>3968912</v>
+      </c>
+      <c r="M28">
+        <v>3968912</v>
+      </c>
+      <c r="N28">
+        <v>3965933</v>
+      </c>
+      <c r="O28">
+        <v>3965933</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>20160928</v>
       </c>
@@ -3230,10 +4182,19 @@
         <v>3987026</v>
       </c>
       <c r="L29">
-        <v>3824441</v>
+        <v>3976964</v>
+      </c>
+      <c r="M29">
+        <v>3976964</v>
+      </c>
+      <c r="N29">
+        <v>3924369</v>
+      </c>
+      <c r="O29">
+        <v>3924369</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>20160929</v>
       </c>
@@ -3269,10 +4230,19 @@
         <v>3983534</v>
       </c>
       <c r="L30">
-        <v>3645676</v>
+        <v>3920057</v>
+      </c>
+      <c r="M30">
+        <v>3920057</v>
+      </c>
+      <c r="N30">
+        <v>3806647</v>
+      </c>
+      <c r="O30">
+        <v>3806647</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>20160930</v>
       </c>
@@ -3308,15 +4278,33 @@
         <v>3939722</v>
       </c>
       <c r="L31">
-        <v>3933930</v>
+        <v>3821530</v>
+      </c>
+      <c r="M31">
+        <v>3821530</v>
+      </c>
+      <c r="N31">
+        <v>3640555</v>
+      </c>
+      <c r="O31">
+        <v>3640555</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="K32">
         <v>3828125</v>
       </c>
       <c r="L32">
-        <v>3984270</v>
+        <v>3629942</v>
+      </c>
+      <c r="M32">
+        <v>3629942</v>
+      </c>
+      <c r="N32">
+        <v>3916185</v>
+      </c>
+      <c r="O32">
+        <v>3916185</v>
       </c>
     </row>
   </sheetData>
